--- a/dy_qT/expdata/90003.xlsx
+++ b/dy_qT/expdata/90003.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10105"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/fitpack2/database/dy_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DF962B-89DC-CB43-8C5C-47D4ED29559E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA3E0AD-3850-AD42-BD13-C89039F9B1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1020" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4540" yWindow="2040" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CDF1" sheetId="1" r:id="rId1"/>
@@ -971,7 +971,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13:X27"/>
+      <selection activeCell="R2" sqref="R2:R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1066,11 +1066,11 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>-1000</v>
-      </c>
-      <c r="G2">
-        <v>1000</v>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0.5</v>
@@ -1099,11 +1099,11 @@
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2">
-        <v>-1000</v>
-      </c>
-      <c r="R2">
-        <v>1000</v>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
       </c>
       <c r="S2" t="s">
         <v>27</v>
@@ -1140,11 +1140,11 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>-1000</v>
-      </c>
-      <c r="G3">
-        <v>1000</v>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1.5</v>
@@ -1173,11 +1173,11 @@
       <c r="P3">
         <v>0</v>
       </c>
-      <c r="Q3">
-        <v>-1000</v>
-      </c>
-      <c r="R3">
-        <v>1000</v>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" t="b">
+        <v>0</v>
       </c>
       <c r="S3" t="s">
         <v>27</v>
@@ -1214,11 +1214,11 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>-1000</v>
-      </c>
-      <c r="G4">
-        <v>1000</v>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
       </c>
       <c r="H4">
         <v>2.5</v>
@@ -1247,11 +1247,11 @@
       <c r="P4">
         <v>0</v>
       </c>
-      <c r="Q4">
-        <v>-1000</v>
-      </c>
-      <c r="R4">
-        <v>1000</v>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" t="b">
+        <v>0</v>
       </c>
       <c r="S4" t="s">
         <v>27</v>
@@ -1288,11 +1288,11 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>-1000</v>
-      </c>
-      <c r="G5">
-        <v>1000</v>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
       </c>
       <c r="H5">
         <v>3.5</v>
@@ -1321,11 +1321,11 @@
       <c r="P5">
         <v>0</v>
       </c>
-      <c r="Q5">
-        <v>-1000</v>
-      </c>
-      <c r="R5">
-        <v>1000</v>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" t="b">
+        <v>0</v>
       </c>
       <c r="S5" t="s">
         <v>27</v>
@@ -1362,11 +1362,11 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>-1000</v>
-      </c>
-      <c r="G6">
-        <v>1000</v>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
       </c>
       <c r="H6">
         <v>4.5</v>
@@ -1395,11 +1395,11 @@
       <c r="P6">
         <v>0</v>
       </c>
-      <c r="Q6">
-        <v>-1000</v>
-      </c>
-      <c r="R6">
-        <v>1000</v>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" t="b">
+        <v>0</v>
       </c>
       <c r="S6" t="s">
         <v>27</v>
@@ -1436,11 +1436,11 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>-1000</v>
-      </c>
-      <c r="G7">
-        <v>1000</v>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
       </c>
       <c r="H7">
         <v>5.5</v>
@@ -1469,11 +1469,11 @@
       <c r="P7">
         <v>0</v>
       </c>
-      <c r="Q7">
-        <v>-1000</v>
-      </c>
-      <c r="R7">
-        <v>1000</v>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" t="b">
+        <v>0</v>
       </c>
       <c r="S7" t="s">
         <v>27</v>
@@ -1510,11 +1510,11 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>-1000</v>
-      </c>
-      <c r="G8">
-        <v>1000</v>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
       </c>
       <c r="H8">
         <v>6.5</v>
@@ -1543,11 +1543,11 @@
       <c r="P8">
         <v>0</v>
       </c>
-      <c r="Q8">
-        <v>-1000</v>
-      </c>
-      <c r="R8">
-        <v>1000</v>
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" t="b">
+        <v>0</v>
       </c>
       <c r="S8" t="s">
         <v>27</v>
@@ -1584,11 +1584,11 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9">
-        <v>-1000</v>
-      </c>
-      <c r="G9">
-        <v>1000</v>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
       </c>
       <c r="H9">
         <v>7.5</v>
@@ -1617,11 +1617,11 @@
       <c r="P9">
         <v>0</v>
       </c>
-      <c r="Q9">
-        <v>-1000</v>
-      </c>
-      <c r="R9">
-        <v>1000</v>
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" t="b">
+        <v>0</v>
       </c>
       <c r="S9" t="s">
         <v>27</v>
@@ -1658,11 +1658,11 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10">
-        <v>-1000</v>
-      </c>
-      <c r="G10">
-        <v>1000</v>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
       </c>
       <c r="H10">
         <v>8.5</v>
@@ -1691,11 +1691,11 @@
       <c r="P10">
         <v>0</v>
       </c>
-      <c r="Q10">
-        <v>-1000</v>
-      </c>
-      <c r="R10">
-        <v>1000</v>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" t="b">
+        <v>0</v>
       </c>
       <c r="S10" t="s">
         <v>27</v>
@@ -1732,11 +1732,11 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11">
-        <v>-1000</v>
-      </c>
-      <c r="G11">
-        <v>1000</v>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
       </c>
       <c r="H11">
         <v>9.5</v>
@@ -1765,11 +1765,11 @@
       <c r="P11">
         <v>0</v>
       </c>
-      <c r="Q11">
-        <v>-1000</v>
-      </c>
-      <c r="R11">
-        <v>1000</v>
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" t="b">
+        <v>0</v>
       </c>
       <c r="S11" t="s">
         <v>27</v>
@@ -1806,11 +1806,11 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12">
-        <v>-1000</v>
-      </c>
-      <c r="G12">
-        <v>1000</v>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -1839,11 +1839,11 @@
       <c r="P12">
         <v>0</v>
       </c>
-      <c r="Q12">
-        <v>-1000</v>
-      </c>
-      <c r="R12">
-        <v>1000</v>
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" t="b">
+        <v>0</v>
       </c>
       <c r="S12" t="s">
         <v>27</v>
@@ -1880,11 +1880,11 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13">
-        <v>-1000</v>
-      </c>
-      <c r="G13">
-        <v>1000</v>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
       </c>
       <c r="H13">
         <v>13</v>
@@ -1913,11 +1913,11 @@
       <c r="P13">
         <v>0</v>
       </c>
-      <c r="Q13">
-        <v>-1000</v>
-      </c>
-      <c r="R13">
-        <v>1000</v>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" t="b">
+        <v>0</v>
       </c>
       <c r="S13" t="s">
         <v>27</v>
@@ -1954,11 +1954,11 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14">
-        <v>-1000</v>
-      </c>
-      <c r="G14">
-        <v>1000</v>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
       </c>
       <c r="H14">
         <v>15</v>
@@ -1987,11 +1987,11 @@
       <c r="P14">
         <v>0</v>
       </c>
-      <c r="Q14">
-        <v>-1000</v>
-      </c>
-      <c r="R14">
-        <v>1000</v>
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14" t="b">
+        <v>0</v>
       </c>
       <c r="S14" t="s">
         <v>27</v>
@@ -2028,11 +2028,11 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15">
-        <v>-1000</v>
-      </c>
-      <c r="G15">
-        <v>1000</v>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
       </c>
       <c r="H15">
         <v>17</v>
@@ -2061,11 +2061,11 @@
       <c r="P15">
         <v>0</v>
       </c>
-      <c r="Q15">
-        <v>-1000</v>
-      </c>
-      <c r="R15">
-        <v>1000</v>
+      <c r="Q15" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" t="b">
+        <v>0</v>
       </c>
       <c r="S15" t="s">
         <v>27</v>
@@ -2102,11 +2102,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
-        <v>-1000</v>
-      </c>
-      <c r="G16">
-        <v>1000</v>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
       </c>
       <c r="H16">
         <v>19</v>
@@ -2135,11 +2135,11 @@
       <c r="P16">
         <v>0</v>
       </c>
-      <c r="Q16">
-        <v>-1000</v>
-      </c>
-      <c r="R16">
-        <v>1000</v>
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16" t="b">
+        <v>0</v>
       </c>
       <c r="S16" t="s">
         <v>27</v>
@@ -2176,11 +2176,11 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17">
-        <v>-1000</v>
-      </c>
-      <c r="G17">
-        <v>1000</v>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
       </c>
       <c r="H17">
         <v>22.5</v>
@@ -2209,11 +2209,11 @@
       <c r="P17">
         <v>0</v>
       </c>
-      <c r="Q17">
-        <v>-1000</v>
-      </c>
-      <c r="R17">
-        <v>1000</v>
+      <c r="Q17" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" t="b">
+        <v>0</v>
       </c>
       <c r="S17" t="s">
         <v>27</v>
@@ -2250,11 +2250,11 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18">
-        <v>-1000</v>
-      </c>
-      <c r="G18">
-        <v>1000</v>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
       </c>
       <c r="H18">
         <v>27.5</v>
@@ -2283,11 +2283,11 @@
       <c r="P18">
         <v>0</v>
       </c>
-      <c r="Q18">
-        <v>-1000</v>
-      </c>
-      <c r="R18">
-        <v>1000</v>
+      <c r="Q18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R18" t="b">
+        <v>0</v>
       </c>
       <c r="S18" t="s">
         <v>27</v>
@@ -2324,11 +2324,11 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19">
-        <v>-1000</v>
-      </c>
-      <c r="G19">
-        <v>1000</v>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
       </c>
       <c r="H19">
         <v>32.5</v>
@@ -2357,11 +2357,11 @@
       <c r="P19">
         <v>0</v>
       </c>
-      <c r="Q19">
-        <v>-1000</v>
-      </c>
-      <c r="R19">
-        <v>1000</v>
+      <c r="Q19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R19" t="b">
+        <v>0</v>
       </c>
       <c r="S19" t="s">
         <v>27</v>
@@ -2398,11 +2398,11 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20">
-        <v>-1000</v>
-      </c>
-      <c r="G20">
-        <v>1000</v>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
       </c>
       <c r="H20">
         <v>37.5</v>
@@ -2431,11 +2431,11 @@
       <c r="P20">
         <v>0</v>
       </c>
-      <c r="Q20">
-        <v>-1000</v>
-      </c>
-      <c r="R20">
-        <v>1000</v>
+      <c r="Q20" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20" t="b">
+        <v>0</v>
       </c>
       <c r="S20" t="s">
         <v>27</v>
@@ -2472,11 +2472,11 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
-        <v>-1000</v>
-      </c>
-      <c r="G21">
-        <v>1000</v>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
       </c>
       <c r="H21">
         <v>45</v>
@@ -2505,11 +2505,11 @@
       <c r="P21">
         <v>0</v>
       </c>
-      <c r="Q21">
-        <v>-1000</v>
-      </c>
-      <c r="R21">
-        <v>1000</v>
+      <c r="Q21" t="b">
+        <v>0</v>
+      </c>
+      <c r="R21" t="b">
+        <v>0</v>
       </c>
       <c r="S21" t="s">
         <v>27</v>
@@ -2546,11 +2546,11 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
-        <v>-1000</v>
-      </c>
-      <c r="G22">
-        <v>1000</v>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
       </c>
       <c r="H22">
         <v>55</v>
@@ -2579,11 +2579,11 @@
       <c r="P22">
         <v>0</v>
       </c>
-      <c r="Q22">
-        <v>-1000</v>
-      </c>
-      <c r="R22">
-        <v>1000</v>
+      <c r="Q22" t="b">
+        <v>0</v>
+      </c>
+      <c r="R22" t="b">
+        <v>0</v>
       </c>
       <c r="S22" t="s">
         <v>27</v>
@@ -2620,11 +2620,11 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23">
-        <v>-1000</v>
-      </c>
-      <c r="G23">
-        <v>1000</v>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
       </c>
       <c r="H23">
         <v>65</v>
@@ -2653,11 +2653,11 @@
       <c r="P23">
         <v>0</v>
       </c>
-      <c r="Q23">
-        <v>-1000</v>
-      </c>
-      <c r="R23">
-        <v>1000</v>
+      <c r="Q23" t="b">
+        <v>0</v>
+      </c>
+      <c r="R23" t="b">
+        <v>0</v>
       </c>
       <c r="S23" t="s">
         <v>27</v>
@@ -2694,11 +2694,11 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24">
-        <v>-1000</v>
-      </c>
-      <c r="G24">
-        <v>1000</v>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
       </c>
       <c r="H24">
         <v>77.5</v>
@@ -2727,11 +2727,11 @@
       <c r="P24">
         <v>0</v>
       </c>
-      <c r="Q24">
-        <v>-1000</v>
-      </c>
-      <c r="R24">
-        <v>1000</v>
+      <c r="Q24" t="b">
+        <v>0</v>
+      </c>
+      <c r="R24" t="b">
+        <v>0</v>
       </c>
       <c r="S24" t="s">
         <v>27</v>
@@ -2768,11 +2768,11 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25">
-        <v>-1000</v>
-      </c>
-      <c r="G25">
-        <v>1000</v>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
       </c>
       <c r="H25">
         <v>92.5</v>
@@ -2801,11 +2801,11 @@
       <c r="P25">
         <v>0</v>
       </c>
-      <c r="Q25">
-        <v>-1000</v>
-      </c>
-      <c r="R25">
-        <v>1000</v>
+      <c r="Q25" t="b">
+        <v>0</v>
+      </c>
+      <c r="R25" t="b">
+        <v>0</v>
       </c>
       <c r="S25" t="s">
         <v>27</v>
@@ -2842,11 +2842,11 @@
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26">
-        <v>-1000</v>
-      </c>
-      <c r="G26">
-        <v>1000</v>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
       </c>
       <c r="H26">
         <v>150</v>
@@ -2875,11 +2875,11 @@
       <c r="P26">
         <v>0</v>
       </c>
-      <c r="Q26">
-        <v>-1000</v>
-      </c>
-      <c r="R26">
-        <v>1000</v>
+      <c r="Q26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R26" t="b">
+        <v>0</v>
       </c>
       <c r="S26" t="s">
         <v>27</v>
@@ -2916,11 +2916,11 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27">
-        <v>-1000</v>
-      </c>
-      <c r="G27">
-        <v>1000</v>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
       </c>
       <c r="H27">
         <v>250</v>
@@ -2949,11 +2949,11 @@
       <c r="P27">
         <v>0</v>
       </c>
-      <c r="Q27">
-        <v>-1000</v>
-      </c>
-      <c r="R27">
-        <v>1000</v>
+      <c r="Q27" t="b">
+        <v>0</v>
+      </c>
+      <c r="R27" t="b">
+        <v>0</v>
       </c>
       <c r="S27" t="s">
         <v>27</v>
